--- a/assets/pizza_raw.xlsx
+++ b/assets/pizza_raw.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caiopavesi/Code/example-etl-pme/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A48620-B644-EA47-B193-789059BBEF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$101</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,9 +106,6 @@
     <t>Pepperoni;Four Cheese;Veggie;</t>
   </si>
   <si>
-    <t>Chicken BBQ;</t>
-  </si>
-  <si>
     <t>Margherita;Chicken BBQ;Veggie;</t>
   </si>
   <si>
@@ -323,17 +329,20 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Chocolate;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,13 +407,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +459,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -476,6 +493,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -510,9 +528,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,14 +704,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="56.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,15 +787,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45965.73055555556</v>
+        <v>45965.730555555558</v>
       </c>
       <c r="C2" s="2">
-        <v>45965.73125</v>
+        <v>45965.731249999997</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -768,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -780,30 +819,30 @@
         <v>45958</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45965.73194444444</v>
+        <v>45965.731944444437</v>
       </c>
       <c r="C3" s="2">
         <v>45965.73333333333</v>
@@ -818,10 +857,10 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -830,25 +869,25 @@
         <v>45955</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -856,7 +895,7 @@
         <v>45965.73333333333</v>
       </c>
       <c r="C4" s="2">
-        <v>45965.73402777778</v>
+        <v>45965.734027777777</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -868,10 +907,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -880,33 +919,33 @@
         <v>45958</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45965.73472222222</v>
+        <v>45965.734722222223</v>
       </c>
       <c r="C5" s="2">
-        <v>45965.73611111111</v>
+        <v>45965.736111111109</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -918,10 +957,10 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -930,33 +969,33 @@
         <v>45955</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>45965.73611111111</v>
+        <v>45965.736111111109</v>
       </c>
       <c r="C6" s="2">
-        <v>45965.73819444444</v>
+        <v>45965.738194444442</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -968,10 +1007,10 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -980,33 +1019,33 @@
         <v>45959</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>45965.7375</v>
+        <v>45965.737500000003</v>
       </c>
       <c r="C7" s="2">
-        <v>45965.73888888889</v>
+        <v>45965.738888888889</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1015,13 +1054,13 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1030,33 +1069,33 @@
         <v>45955</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>45965.73888888889</v>
+        <v>45965.738888888889</v>
       </c>
       <c r="C8" s="2">
-        <v>45965.74097222222</v>
+        <v>45965.740972222222</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1065,13 +1104,13 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1080,33 +1119,33 @@
         <v>45958</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>45965.74027777778</v>
+        <v>45965.740277777782</v>
       </c>
       <c r="C9" s="2">
-        <v>45965.74097222222</v>
+        <v>45965.740972222222</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1115,13 +1154,13 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1130,33 +1169,33 @@
         <v>45957</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>45965.74166666667</v>
+        <v>45965.741666666669</v>
       </c>
       <c r="C10" s="2">
-        <v>45965.74305555555</v>
+        <v>45965.743055555547</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1165,13 +1204,13 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1180,33 +1219,33 @@
         <v>45959</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45965.74305555555</v>
+        <v>45965.743055555547</v>
       </c>
       <c r="C11" s="2">
-        <v>45965.74513888889</v>
+        <v>45965.745138888888</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1215,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1230,33 +1269,33 @@
         <v>45955</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>45965.74444444444</v>
+        <v>45965.744444444441</v>
       </c>
       <c r="C12" s="2">
-        <v>45965.74652777778</v>
+        <v>45965.746527777781</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1265,13 +1304,13 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1280,33 +1319,33 @@
         <v>45959</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>45965.74583333333</v>
+        <v>45965.745833333327</v>
       </c>
       <c r="C13" s="2">
-        <v>45965.74652777778</v>
+        <v>45965.746527777781</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1318,10 +1357,10 @@
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1330,25 +1369,25 @@
         <v>45961</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1356,7 +1395,7 @@
         <v>45965.74722222222</v>
       </c>
       <c r="C14" s="2">
-        <v>45965.74861111111</v>
+        <v>45965.748611111107</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1365,13 +1404,13 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1380,33 +1419,33 @@
         <v>45958</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>45965.74861111111</v>
+        <v>45965.748611111107</v>
       </c>
       <c r="C15" s="2">
-        <v>45965.75069444445</v>
+        <v>45965.750694444447</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1415,13 +1454,13 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1430,25 +1469,25 @@
         <v>45959</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1456,7 +1495,7 @@
         <v>45965.75</v>
       </c>
       <c r="C16" s="2">
-        <v>45965.75138888889</v>
+        <v>45965.751388888893</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1465,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -1480,30 +1519,30 @@
         <v>45958</v>
       </c>
       <c r="M16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>45965.75138888889</v>
+        <v>45965.751388888893</v>
       </c>
       <c r="C17" s="2">
         <v>45965.75277777778</v>
@@ -1515,13 +1554,13 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1530,25 +1569,25 @@
         <v>45957</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1556,7 +1595,7 @@
         <v>45965.75277777778</v>
       </c>
       <c r="C18" s="2">
-        <v>45965.75416666667</v>
+        <v>45965.754166666673</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1565,13 +1604,13 @@
         <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1580,33 +1619,33 @@
         <v>45959</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>45965.75416666667</v>
+        <v>45965.754166666673</v>
       </c>
       <c r="C19" s="2">
-        <v>45965.75555555556</v>
+        <v>45965.755555555559</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1615,13 +1654,13 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1630,33 +1669,33 @@
         <v>45957</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>45965.75555555556</v>
+        <v>45965.755555555559</v>
       </c>
       <c r="C20" s="2">
-        <v>45965.75763888889</v>
+        <v>45965.757638888892</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1665,13 +1704,13 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -1680,33 +1719,33 @@
         <v>45960</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>45965.75694444445</v>
+        <v>45965.756944444453</v>
       </c>
       <c r="C21" s="2">
-        <v>45965.75763888889</v>
+        <v>45965.757638888892</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1715,13 +1754,13 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1730,33 +1769,33 @@
         <v>45959</v>
       </c>
       <c r="M21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>45965.75833333333</v>
+        <v>45965.758333333331</v>
       </c>
       <c r="C22" s="2">
-        <v>45965.75972222222</v>
+        <v>45965.759722222218</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1765,13 +1804,13 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1780,33 +1819,33 @@
         <v>45960</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>45965.75972222222</v>
+        <v>45965.759722222218</v>
       </c>
       <c r="C23" s="2">
-        <v>45965.76041666666</v>
+        <v>45965.760416666657</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1815,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1830,33 +1869,33 @@
         <v>45955</v>
       </c>
       <c r="M23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>45965.76111111111</v>
+        <v>45965.761111111111</v>
       </c>
       <c r="C24" s="2">
-        <v>45965.76319444444</v>
+        <v>45965.763194444437</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1865,13 +1904,13 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1880,30 +1919,30 @@
         <v>45957</v>
       </c>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>45965.7625</v>
+        <v>45965.762499999997</v>
       </c>
       <c r="C25" s="2">
         <v>45965.76458333333</v>
@@ -1915,13 +1954,13 @@
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1930,30 +1969,30 @@
         <v>45957</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>45965.76388888889</v>
+        <v>45965.763888888891</v>
       </c>
       <c r="C26" s="2">
         <v>45965.76458333333</v>
@@ -1965,13 +2004,13 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1980,33 +2019,33 @@
         <v>45955</v>
       </c>
       <c r="M26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>45965.76527777778</v>
+        <v>45965.765277777777</v>
       </c>
       <c r="C27" s="2">
-        <v>45965.76736111111</v>
+        <v>45965.767361111109</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -2015,13 +2054,13 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2030,25 +2069,25 @@
         <v>45957</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2056,7 +2095,7 @@
         <v>45965.76666666667</v>
       </c>
       <c r="C28" s="2">
-        <v>45965.76875</v>
+        <v>45965.768750000003</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -2068,10 +2107,10 @@
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2080,33 +2119,33 @@
         <v>45958</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>45965.76805555556</v>
+        <v>45965.768055555563</v>
       </c>
       <c r="C29" s="2">
-        <v>45965.76875</v>
+        <v>45965.768750000003</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -2115,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -2130,33 +2169,33 @@
         <v>45961</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>45965.76944444444</v>
+        <v>45965.769444444442</v>
       </c>
       <c r="C30" s="2">
-        <v>45965.77152777778</v>
+        <v>45965.771527777782</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -2165,13 +2204,13 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2180,33 +2219,33 @@
         <v>45956</v>
       </c>
       <c r="M30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>45965.77083333334</v>
+        <v>45965.770833333343</v>
       </c>
       <c r="C31" s="2">
-        <v>45965.77222222222</v>
+        <v>45965.772222222222</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -2215,13 +2254,13 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -2230,33 +2269,33 @@
         <v>45957</v>
       </c>
       <c r="M31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>45965.77222222222</v>
+        <v>45965.772222222222</v>
       </c>
       <c r="C32" s="2">
-        <v>45965.77361111111</v>
+        <v>45965.773611111108</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -2265,13 +2304,13 @@
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -2280,33 +2319,33 @@
         <v>45958</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>45965.77361111111</v>
+        <v>45965.773611111108</v>
       </c>
       <c r="C33" s="2">
-        <v>45965.77569444444</v>
+        <v>45965.775694444441</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -2315,13 +2354,13 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2330,33 +2369,33 @@
         <v>45956</v>
       </c>
       <c r="M33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>45965.775</v>
+        <v>45965.775000000001</v>
       </c>
       <c r="C34" s="2">
-        <v>45965.77638888889</v>
+        <v>45965.776388888888</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -2368,10 +2407,10 @@
         <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -2380,33 +2419,33 @@
         <v>45959</v>
       </c>
       <c r="M34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>45965.77638888889</v>
+        <v>45965.776388888888</v>
       </c>
       <c r="C35" s="2">
-        <v>45965.77708333333</v>
+        <v>45965.777083333327</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2415,13 +2454,13 @@
         <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -2430,33 +2469,33 @@
         <v>45955</v>
       </c>
       <c r="M35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>45965.77777777778</v>
+        <v>45965.777777777781</v>
       </c>
       <c r="C36" s="2">
-        <v>45965.77986111111</v>
+        <v>45965.779861111107</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -2465,13 +2504,13 @@
         <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2480,30 +2519,30 @@
         <v>45960</v>
       </c>
       <c r="M36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>45965.77916666667</v>
+        <v>45965.779166666667</v>
       </c>
       <c r="C37" s="2">
         <v>45965.78125</v>
@@ -2515,13 +2554,13 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -2530,33 +2569,33 @@
         <v>45955</v>
       </c>
       <c r="M37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>45965.78055555555</v>
+        <v>45965.780555555553</v>
       </c>
       <c r="C38" s="2">
-        <v>45965.78263888889</v>
+        <v>45965.782638888893</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -2565,13 +2604,13 @@
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K38">
         <v>5</v>
@@ -2580,30 +2619,30 @@
         <v>45957</v>
       </c>
       <c r="M38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>45965.78194444445</v>
+        <v>45965.781944444447</v>
       </c>
       <c r="C39" s="2">
         <v>45965.78402777778</v>
@@ -2615,13 +2654,13 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -2630,33 +2669,33 @@
         <v>45960</v>
       </c>
       <c r="M39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R39">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>45965.78333333333</v>
+        <v>45965.783333333333</v>
       </c>
       <c r="C40" s="2">
-        <v>45965.78472222222</v>
+        <v>45965.784722222219</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -2665,13 +2704,13 @@
         <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -2680,33 +2719,33 @@
         <v>45956</v>
       </c>
       <c r="M40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>45965.78472222222</v>
+        <v>45965.784722222219</v>
       </c>
       <c r="C41" s="2">
-        <v>45965.78680555556</v>
+        <v>45965.786805555559</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -2718,10 +2757,10 @@
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -2730,33 +2769,33 @@
         <v>45960</v>
       </c>
       <c r="M41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R41">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>45965.78611111111</v>
+        <v>45965.786111111112</v>
       </c>
       <c r="C42" s="2">
-        <v>45965.7875</v>
+        <v>45965.787499999999</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -2765,13 +2804,13 @@
         <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -2780,33 +2819,33 @@
         <v>45961</v>
       </c>
       <c r="M42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>45965.7875</v>
+        <v>45965.787499999999</v>
       </c>
       <c r="C43" s="2">
-        <v>45965.78819444445</v>
+        <v>45965.788194444453</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2815,13 +2854,13 @@
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -2830,33 +2869,33 @@
         <v>45961</v>
       </c>
       <c r="M43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>45965.78888888889</v>
+        <v>45965.788888888892</v>
       </c>
       <c r="C44" s="2">
-        <v>45965.79027777778</v>
+        <v>45965.790277777778</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -2868,10 +2907,10 @@
         <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2880,33 +2919,33 @@
         <v>45961</v>
       </c>
       <c r="M44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>45965.79027777778</v>
+        <v>45965.790277777778</v>
       </c>
       <c r="C45" s="2">
-        <v>45965.79236111111</v>
+        <v>45965.792361111111</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -2915,13 +2954,13 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -2930,33 +2969,33 @@
         <v>45959</v>
       </c>
       <c r="M45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>45965.79166666666</v>
+        <v>45965.791666666657</v>
       </c>
       <c r="C46" s="2">
-        <v>45965.79375</v>
+        <v>45965.793749999997</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2965,13 +3004,13 @@
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2980,33 +3019,33 @@
         <v>45958</v>
       </c>
       <c r="M46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>45965.79305555556</v>
+        <v>45965.793055555558</v>
       </c>
       <c r="C47" s="2">
-        <v>45965.79513888889</v>
+        <v>45965.795138888891</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -3015,13 +3054,13 @@
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -3030,33 +3069,33 @@
         <v>45957</v>
       </c>
       <c r="M47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R47">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>45965.79444444444</v>
+        <v>45965.794444444437</v>
       </c>
       <c r="C48" s="2">
-        <v>45965.79513888889</v>
+        <v>45965.795138888891</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -3065,13 +3104,13 @@
         <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3080,25 +3119,25 @@
         <v>45955</v>
       </c>
       <c r="M48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3106,7 +3145,7 @@
         <v>45965.79583333333</v>
       </c>
       <c r="C49" s="2">
-        <v>45965.79722222222</v>
+        <v>45965.797222222223</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -3115,13 +3154,13 @@
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -3130,33 +3169,33 @@
         <v>45957</v>
       </c>
       <c r="M49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>45965.79722222222</v>
+        <v>45965.797222222223</v>
       </c>
       <c r="C50" s="2">
-        <v>45965.79930555556</v>
+        <v>45965.799305555563</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -3165,13 +3204,13 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -3180,30 +3219,30 @@
         <v>45957</v>
       </c>
       <c r="M50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>45965.79861111111</v>
+        <v>45965.798611111109</v>
       </c>
       <c r="C51" s="2">
         <v>45965.8</v>
@@ -3215,13 +3254,13 @@
         <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -3230,25 +3269,25 @@
         <v>45961</v>
       </c>
       <c r="M51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R51">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3256,7 +3295,7 @@
         <v>45965.8</v>
       </c>
       <c r="C52" s="2">
-        <v>45965.80138888889</v>
+        <v>45965.801388888889</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -3265,13 +3304,13 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -3280,33 +3319,33 @@
         <v>45961</v>
       </c>
       <c r="M52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>45965.80138888889</v>
+        <v>45965.801388888889</v>
       </c>
       <c r="C53" s="2">
-        <v>45965.80277777778</v>
+        <v>45965.802777777782</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -3315,13 +3354,13 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -3330,33 +3369,33 @@
         <v>45961</v>
       </c>
       <c r="M53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R53">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>45965.80277777778</v>
+        <v>45965.802777777782</v>
       </c>
       <c r="C54" s="2">
-        <v>45965.80486111111</v>
+        <v>45965.804861111108</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -3365,13 +3404,13 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -3380,33 +3419,33 @@
         <v>45957</v>
       </c>
       <c r="M54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>45965.80416666667</v>
+        <v>45965.804166666669</v>
       </c>
       <c r="C55" s="2">
-        <v>45965.80625</v>
+        <v>45965.806250000001</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -3415,13 +3454,13 @@
         <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -3430,33 +3469,33 @@
         <v>45960</v>
       </c>
       <c r="M55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>45965.80555555555</v>
+        <v>45965.805555555547</v>
       </c>
       <c r="C56" s="2">
-        <v>45965.80625</v>
+        <v>45965.806250000001</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -3465,13 +3504,13 @@
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3480,33 +3519,33 @@
         <v>45959</v>
       </c>
       <c r="M56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R56">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>45965.80694444444</v>
+        <v>45965.806944444441</v>
       </c>
       <c r="C57" s="2">
-        <v>45965.80902777778</v>
+        <v>45965.809027777781</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -3515,13 +3554,13 @@
         <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -3530,30 +3569,30 @@
         <v>45961</v>
       </c>
       <c r="M57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R57">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>45965.80833333333</v>
+        <v>45965.808333333327</v>
       </c>
       <c r="C58" s="2">
         <v>45965.80972222222</v>
@@ -3565,13 +3604,13 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3580,25 +3619,25 @@
         <v>45961</v>
       </c>
       <c r="M58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3606,7 +3645,7 @@
         <v>45965.80972222222</v>
       </c>
       <c r="C59" s="2">
-        <v>45965.81111111111</v>
+        <v>45965.811111111107</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3615,13 +3654,13 @@
         <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -3630,33 +3669,33 @@
         <v>45960</v>
       </c>
       <c r="M59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>45965.81111111111</v>
+        <v>45965.811111111107</v>
       </c>
       <c r="C60" s="2">
-        <v>45965.81180555555</v>
+        <v>45965.811805555553</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -3665,13 +3704,13 @@
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -3680,25 +3719,25 @@
         <v>45960</v>
       </c>
       <c r="M60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3706,7 +3745,7 @@
         <v>45965.8125</v>
       </c>
       <c r="C61" s="2">
-        <v>45965.81458333333</v>
+        <v>45965.814583333333</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -3715,13 +3754,13 @@
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -3730,30 +3769,30 @@
         <v>45959</v>
       </c>
       <c r="M61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R61">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>45965.81388888889</v>
+        <v>45965.813888888893</v>
       </c>
       <c r="C62" s="2">
         <v>45965.81527777778</v>
@@ -3765,13 +3804,13 @@
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -3780,25 +3819,25 @@
         <v>45956</v>
       </c>
       <c r="M62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3806,7 +3845,7 @@
         <v>45965.81527777778</v>
       </c>
       <c r="C63" s="2">
-        <v>45965.81597222222</v>
+        <v>45965.815972222219</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -3815,13 +3854,13 @@
         <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -3830,33 +3869,33 @@
         <v>45957</v>
       </c>
       <c r="M63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>45965.81666666667</v>
+        <v>45965.816666666673</v>
       </c>
       <c r="C64" s="2">
-        <v>45965.81875</v>
+        <v>45965.818749999999</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -3865,13 +3904,13 @@
         <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -3880,33 +3919,33 @@
         <v>45955</v>
       </c>
       <c r="M64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R64">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>45965.81805555556</v>
+        <v>45965.818055555559</v>
       </c>
       <c r="C65" s="2">
-        <v>45965.81944444445</v>
+        <v>45965.819444444453</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -3915,13 +3954,13 @@
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -3930,33 +3969,33 @@
         <v>45958</v>
       </c>
       <c r="M65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R65">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>45965.81944444445</v>
+        <v>45965.819444444453</v>
       </c>
       <c r="C66" s="2">
-        <v>45965.82152777778</v>
+        <v>45965.821527777778</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -3965,13 +4004,13 @@
         <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -3980,33 +4019,33 @@
         <v>45959</v>
       </c>
       <c r="M66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>45965.82083333333</v>
+        <v>45965.820833333331</v>
       </c>
       <c r="C67" s="2">
-        <v>45965.82291666666</v>
+        <v>45965.822916666657</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -4018,10 +4057,10 @@
         <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -4030,33 +4069,33 @@
         <v>45960</v>
       </c>
       <c r="M67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>45965.82222222222</v>
+        <v>45965.822222222218</v>
       </c>
       <c r="C68" s="2">
-        <v>45965.82291666666</v>
+        <v>45965.822916666657</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -4065,13 +4104,13 @@
         <v>21</v>
       </c>
       <c r="H68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -4080,33 +4119,33 @@
         <v>45957</v>
       </c>
       <c r="M68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R68">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>45965.82361111111</v>
+        <v>45965.823611111111</v>
       </c>
       <c r="C69" s="2">
-        <v>45965.825</v>
+        <v>45965.824999999997</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -4115,13 +4154,13 @@
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -4130,30 +4169,30 @@
         <v>45960</v>
       </c>
       <c r="M69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R69">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>45965.825</v>
+        <v>45965.824999999997</v>
       </c>
       <c r="C70" s="2">
         <v>45965.82708333333</v>
@@ -4165,13 +4204,13 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -4180,30 +4219,30 @@
         <v>45955</v>
       </c>
       <c r="M70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R70">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>45965.82638888889</v>
+        <v>45965.826388888891</v>
       </c>
       <c r="C71" s="2">
         <v>45965.82708333333</v>
@@ -4215,13 +4254,13 @@
         <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -4230,30 +4269,30 @@
         <v>45955</v>
       </c>
       <c r="M71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>45965.82777777778</v>
+        <v>45965.827777777777</v>
       </c>
       <c r="C72" s="2">
         <v>45965.82916666667</v>
@@ -4265,13 +4304,13 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -4280,25 +4319,25 @@
         <v>45961</v>
       </c>
       <c r="M72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4306,7 +4345,7 @@
         <v>45965.82916666667</v>
       </c>
       <c r="C73" s="2">
-        <v>45965.82986111111</v>
+        <v>45965.829861111109</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -4318,10 +4357,10 @@
         <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -4330,33 +4369,33 @@
         <v>45959</v>
       </c>
       <c r="M73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>45965.83055555556</v>
+        <v>45965.830555555563</v>
       </c>
       <c r="C74" s="2">
-        <v>45965.83125</v>
+        <v>45965.831250000003</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -4365,13 +4404,13 @@
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -4380,33 +4419,33 @@
         <v>45960</v>
       </c>
       <c r="M74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R74">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>45965.83194444444</v>
+        <v>45965.831944444442</v>
       </c>
       <c r="C75" s="2">
-        <v>45965.83402777778</v>
+        <v>45965.834027777782</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -4418,10 +4457,10 @@
         <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K75">
         <v>5</v>
@@ -4430,33 +4469,33 @@
         <v>45961</v>
       </c>
       <c r="M75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R75">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>45965.83333333334</v>
+        <v>45965.833333333343</v>
       </c>
       <c r="C76" s="2">
-        <v>45965.83541666667</v>
+        <v>45965.835416666669</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -4465,13 +4504,13 @@
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -4480,33 +4519,33 @@
         <v>45959</v>
       </c>
       <c r="M76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R76">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>45965.83472222222</v>
+        <v>45965.834722222222</v>
       </c>
       <c r="C77" s="2">
-        <v>45965.83541666667</v>
+        <v>45965.835416666669</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -4515,13 +4554,13 @@
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -4530,33 +4569,33 @@
         <v>45958</v>
       </c>
       <c r="M77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>45965.83611111111</v>
+        <v>45965.836111111108</v>
       </c>
       <c r="C78" s="2">
-        <v>45965.8375</v>
+        <v>45965.837500000001</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -4565,13 +4604,13 @@
         <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -4580,33 +4619,33 @@
         <v>45955</v>
       </c>
       <c r="M78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>45965.8375</v>
+        <v>45965.837500000001</v>
       </c>
       <c r="C79" s="2">
-        <v>45965.83958333333</v>
+        <v>45965.839583333327</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -4615,13 +4654,13 @@
         <v>21</v>
       </c>
       <c r="H79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -4630,33 +4669,33 @@
         <v>45958</v>
       </c>
       <c r="M79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>45965.83888888889</v>
+        <v>45965.838888888888</v>
       </c>
       <c r="C80" s="2">
-        <v>45965.83958333333</v>
+        <v>45965.839583333327</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -4665,13 +4704,13 @@
         <v>21</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K80">
         <v>5</v>
@@ -4680,33 +4719,33 @@
         <v>45955</v>
       </c>
       <c r="M80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R80">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>45965.84027777778</v>
+        <v>45965.840277777781</v>
       </c>
       <c r="C81" s="2">
-        <v>45965.84236111111</v>
+        <v>45965.842361111107</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -4715,13 +4754,13 @@
         <v>21</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -4730,30 +4769,30 @@
         <v>45955</v>
       </c>
       <c r="M81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>45965.84166666667</v>
+        <v>45965.841666666667</v>
       </c>
       <c r="C82" s="2">
         <v>45965.84375</v>
@@ -4765,13 +4804,13 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -4780,33 +4819,33 @@
         <v>45960</v>
       </c>
       <c r="M82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>45965.84305555555</v>
+        <v>45965.843055555553</v>
       </c>
       <c r="C83" s="2">
-        <v>45965.84513888889</v>
+        <v>45965.845138888893</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -4815,13 +4854,13 @@
         <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -4830,33 +4869,33 @@
         <v>45956</v>
       </c>
       <c r="M83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>45965.84444444445</v>
+        <v>45965.844444444447</v>
       </c>
       <c r="C84" s="2">
-        <v>45965.84513888889</v>
+        <v>45965.845138888893</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -4865,13 +4904,13 @@
         <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -4880,30 +4919,30 @@
         <v>45961</v>
       </c>
       <c r="M84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>45965.84583333333</v>
+        <v>45965.845833333333</v>
       </c>
       <c r="C85" s="2">
         <v>45965.84652777778</v>
@@ -4915,13 +4954,13 @@
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -4930,33 +4969,33 @@
         <v>45958</v>
       </c>
       <c r="M85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>45965.84722222222</v>
+        <v>45965.847222222219</v>
       </c>
       <c r="C86" s="2">
-        <v>45965.84791666667</v>
+        <v>45965.847916666673</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -4965,13 +5004,13 @@
         <v>21</v>
       </c>
       <c r="H86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K86">
         <v>4</v>
@@ -4980,30 +5019,30 @@
         <v>45956</v>
       </c>
       <c r="M86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>45965.84861111111</v>
+        <v>45965.848611111112</v>
       </c>
       <c r="C87" s="2">
         <v>45965.85</v>
@@ -5015,13 +5054,13 @@
         <v>21</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -5030,25 +5069,25 @@
         <v>45955</v>
       </c>
       <c r="M87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5056,7 +5095,7 @@
         <v>45965.85</v>
       </c>
       <c r="C88" s="2">
-        <v>45965.85138888889</v>
+        <v>45965.851388888892</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -5065,13 +5104,13 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -5080,33 +5119,33 @@
         <v>45958</v>
       </c>
       <c r="M88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>45965.85138888889</v>
+        <v>45965.851388888892</v>
       </c>
       <c r="C89" s="2">
-        <v>45965.85208333333</v>
+        <v>45965.852083333331</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -5115,13 +5154,13 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -5130,33 +5169,33 @@
         <v>45956</v>
       </c>
       <c r="M89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>45965.85277777778</v>
+        <v>45965.852777777778</v>
       </c>
       <c r="C90" s="2">
-        <v>45965.85486111111</v>
+        <v>45965.854861111111</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -5165,13 +5204,13 @@
         <v>21</v>
       </c>
       <c r="H90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K90">
         <v>3</v>
@@ -5180,33 +5219,33 @@
         <v>45957</v>
       </c>
       <c r="M90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R90">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>45965.85416666666</v>
+        <v>45965.854166666657</v>
       </c>
       <c r="C91" s="2">
-        <v>45965.85486111111</v>
+        <v>45965.854861111111</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -5215,13 +5254,13 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K91">
         <v>5</v>
@@ -5230,33 +5269,33 @@
         <v>45955</v>
       </c>
       <c r="M91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>45965.85555555556</v>
+        <v>45965.855555555558</v>
       </c>
       <c r="C92" s="2">
-        <v>45965.85763888889</v>
+        <v>45965.857638888891</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -5265,13 +5304,13 @@
         <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -5280,30 +5319,30 @@
         <v>45958</v>
       </c>
       <c r="M92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>45965.85694444444</v>
+        <v>45965.856944444437</v>
       </c>
       <c r="C93" s="2">
         <v>45965.85833333333</v>
@@ -5315,13 +5354,13 @@
         <v>21</v>
       </c>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K93">
         <v>4</v>
@@ -5330,25 +5369,25 @@
         <v>45956</v>
       </c>
       <c r="M93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R93">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5365,13 +5404,13 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K94">
         <v>4</v>
@@ -5380,30 +5419,30 @@
         <v>45960</v>
       </c>
       <c r="M94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>45965.85972222222</v>
+        <v>45965.859722222223</v>
       </c>
       <c r="C95" s="2">
         <v>45965.86041666667</v>
@@ -5415,13 +5454,13 @@
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -5430,33 +5469,33 @@
         <v>45958</v>
       </c>
       <c r="M95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>45965.86111111111</v>
+        <v>45965.861111111109</v>
       </c>
       <c r="C96" s="2">
-        <v>45965.86180555556</v>
+        <v>45965.861805555563</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -5465,13 +5504,13 @@
         <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -5480,33 +5519,33 @@
         <v>45956</v>
       </c>
       <c r="M96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>45965.8625</v>
+        <v>45965.862500000003</v>
       </c>
       <c r="C97" s="2">
-        <v>45965.86388888889</v>
+        <v>45965.863888888889</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -5515,13 +5554,13 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -5530,33 +5569,33 @@
         <v>45961</v>
       </c>
       <c r="M97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R97">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>45965.86388888889</v>
+        <v>45965.863888888889</v>
       </c>
       <c r="C98" s="2">
-        <v>45965.86597222222</v>
+        <v>45965.865972222222</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -5565,13 +5604,13 @@
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -5580,33 +5619,33 @@
         <v>45960</v>
       </c>
       <c r="M98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>45965.86527777778</v>
+        <v>45965.865277777782</v>
       </c>
       <c r="C99" s="2">
-        <v>45965.86736111111</v>
+        <v>45965.867361111108</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -5618,10 +5657,10 @@
         <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -5630,33 +5669,33 @@
         <v>45955</v>
       </c>
       <c r="M99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R99">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>45965.86666666667</v>
+        <v>45965.866666666669</v>
       </c>
       <c r="C100" s="2">
-        <v>45965.86736111111</v>
+        <v>45965.867361111108</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -5665,13 +5704,13 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -5680,33 +5719,33 @@
         <v>45959</v>
       </c>
       <c r="M100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>45965.86805555555</v>
+        <v>45965.868055555547</v>
       </c>
       <c r="C101" s="2">
-        <v>45965.86944444444</v>
+        <v>45965.869444444441</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -5715,13 +5754,13 @@
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K101">
         <v>5</v>
@@ -5730,25 +5769,26 @@
         <v>45955</v>
       </c>
       <c r="M101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R101">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>